--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_2_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_2_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.06000000000048</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.558207753859869e-16</v>
+        <v>1.580388647153248e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>59.80243693975503</v>
+        <v>58.78658903679212</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[55.24140826241444, 64.36346561709561]</t>
+          <t>[54.3104086417905, 63.26276943179373]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.704447665911579</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.628973968528041, 1.7799213632951174]</t>
+          <t>[1.54092132158058, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>55.40203394495239</v>
+        <v>54.97703260455373</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.56606023413717, 58.2380076557676]</t>
+          <t>[52.00994799120679, 57.94411721790066]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.26194194194229</v>
+        <v>18.53333333333368</v>
       </c>
       <c r="X2" t="n">
-        <v>17.96092092092126</v>
+        <v>18.18270270270305</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.56296296296332</v>
+        <v>18.88396396396432</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.92000000000014</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.558207753859869e-16</v>
+        <v>1.580388647153248e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>57.27387663887308</v>
+        <v>59.16543786252052</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[52.047809599718654, 62.4999436780275]</t>
+          <t>[53.75400569077084, 64.5768700342702]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.364842518017542</v>
+        <v>-2.540947811912465</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.4528951649650033, -2.27678987107008]</t>
+          <t>[-2.6290004588599274, -2.4528951649650033]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.75516268657021</v>
+        <v>55.57854770479633</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.050731142585086, 56.45959423055533]</t>
+          <t>[52.7478051338232, 58.40929027576946]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.626546546546601</v>
+        <v>9.248728728728784</v>
       </c>
       <c r="X3" t="n">
-        <v>8.305345345345398</v>
+        <v>8.92822822822828</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.947747747747805</v>
+        <v>9.569229229229288</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_2_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_2_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.02000000000047</v>
+        <v>24.93000000000046</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.580388647153248e-16</v>
+        <v>1.563694400880502e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>58.78658903679212</v>
+        <v>55.91926400049886</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[54.3104086417905, 63.26276943179373]</t>
+          <t>[51.69414488419829, 60.144383116799425]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.54092132158058, 1.7170266154755023]</t>
+          <t>[1.528342372016656, 1.679289766783734]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.97703260455373</v>
+        <v>54.76202138100263</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.00994799120679, 57.94411721790066]</t>
+          <t>[51.90298741157425, 57.621055350431]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.53333333333368</v>
+        <v>18.56648648648683</v>
       </c>
       <c r="X2" t="n">
-        <v>18.18270270270305</v>
+        <v>18.26702702702736</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.88396396396432</v>
+        <v>18.86594594594629</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.87000000000014</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.580388647153248e-16</v>
+        <v>1.563694400880502e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>59.16543786252052</v>
+        <v>59.49928663806795</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[53.75400569077084, 64.5768700342702]</t>
+          <t>[54.34914561644882, 64.64942765968708]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.540947811912465</v>
+        <v>-2.402579366709311</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.6290004588599274, -2.4528951649650033]</t>
+          <t>[-2.4906320136567732, -2.314526719761849]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.57854770479633</v>
+        <v>55.26563855221488</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.7478051338232, 58.40929027576946]</t>
+          <t>[52.55013942820962, 57.98113767622014]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.248728728728784</v>
+        <v>8.760380380380434</v>
       </c>
       <c r="X3" t="n">
-        <v>8.92822822822828</v>
+        <v>8.43931931931937</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.569229229229288</v>
+        <v>9.081441441441498</v>
       </c>
     </row>
   </sheetData>
